--- a/results/I2_N10_T30_C400_0_P2_res.xlsx
+++ b/results/I2_N10_T30_C400_0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>914.6193853066991</v>
+        <v>198.2574223937857</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01800012588500977</v>
+        <v>0.01099991798400879</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.272032830334747e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.55175921606767</v>
+        <v>30.16742239378572</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.978370929286232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.855997019923727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.7299999999939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.46</v>
+        <v>168.09</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -923,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -989,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1039,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.336665625650532</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1047,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.69770569366316</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>20.34885527085025</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.48407906801076</v>
+        <v>24.76592070603971</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.41391628932764</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.34885527085025</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>20.60033324079215</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.8572376043165</v>
+        <v>22.45367071955468</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.40356688476182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>22.61192465059683</v>
       </c>
     </row>
     <row r="13">
@@ -1127,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.59903231740252</v>
+        <v>22.66758337047728</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>26.71671453559703</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,90 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>97.1700000000008</v>
+        <v>177.7200000000015</v>
       </c>
     </row>
     <row r="8">
@@ -1373,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.27000000000081</v>
+        <v>191.3600000000015</v>
       </c>
     </row>
     <row r="9">
@@ -1384,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1150000000008</v>
+        <v>187.3050000000015</v>
       </c>
     </row>
     <row r="10">
@@ -1395,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>99.0400000000008</v>
+        <v>192.2</v>
       </c>
     </row>
     <row r="11">
@@ -1406,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>97.9800000000008</v>
+        <v>188.4700000000015</v>
       </c>
     </row>
     <row r="12">
@@ -1417,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>235.775</v>
+        <v>67.77500000000072</v>
       </c>
     </row>
     <row r="13">
@@ -1428,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>229.025</v>
+        <v>73.77000000000072</v>
       </c>
     </row>
     <row r="14">
@@ -1439,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>213.42</v>
+        <v>74.03500000000074</v>
       </c>
     </row>
     <row r="15">
@@ -1450,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>226.76</v>
+        <v>73.04500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1461,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.56</v>
+        <v>72.66500000000073</v>
       </c>
     </row>
     <row r="17">
@@ -1472,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>46.91999999999942</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="18">
@@ -1483,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36.10499999999942</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="19">
@@ -1494,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>34.91499999999942</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="20">
@@ -1505,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>37.48999999999942</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="21">
@@ -1516,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999941</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="22">
@@ -1527,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>453.4749999999995</v>
+        <v>288.6699999999997</v>
       </c>
     </row>
     <row r="23">
@@ -1538,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>480.9399999999989</v>
+        <v>318.1</v>
       </c>
     </row>
     <row r="24">
@@ -1549,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>452.9749999999995</v>
+        <v>289.5099999999996</v>
       </c>
     </row>
     <row r="25">
@@ -1560,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>473.1099999999996</v>
+        <v>305.3</v>
       </c>
     </row>
     <row r="26">
@@ -1571,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>451.8649999999995</v>
+        <v>289.8849999999996</v>
       </c>
     </row>
     <row r="27">
@@ -1582,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>305.6550000000002</v>
+        <v>62.63000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1593,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>305.3450000000002</v>
+        <v>70.92000000000021</v>
       </c>
     </row>
     <row r="29">
@@ -1604,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>285.8300000000003</v>
+        <v>67.65500000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1615,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>299.4050000000002</v>
+        <v>66.84500000000021</v>
       </c>
     </row>
     <row r="31">
@@ -1626,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>294.45</v>
+        <v>65.41000000000022</v>
       </c>
     </row>
     <row r="32">
@@ -1637,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>107.3799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1648,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3449999999993</v>
+        <v>112.2399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1659,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7049999999993</v>
+        <v>93.78999999999985</v>
       </c>
     </row>
     <row r="35">
@@ -1670,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999993</v>
+        <v>108.8349999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1681,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2149999999993</v>
+        <v>94.77999999999986</v>
       </c>
     </row>
     <row r="37">
@@ -1692,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>169.4850000000008</v>
+        <v>260.7950000000024</v>
       </c>
     </row>
     <row r="38">
@@ -1703,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>175.0800000000003</v>
+        <v>276.0800000000024</v>
       </c>
     </row>
     <row r="39">
@@ -1714,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>169.3900000000008</v>
+        <v>265.2800000000024</v>
       </c>
     </row>
     <row r="40">
@@ -1725,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>174</v>
+        <v>281.9700000000025</v>
       </c>
     </row>
     <row r="41">
@@ -1736,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>174.4750000000008</v>
+        <v>270.3250000000024</v>
       </c>
     </row>
     <row r="42">
@@ -1747,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>380.845</v>
+        <v>216.0400000000002</v>
       </c>
     </row>
     <row r="43">
@@ -1758,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>400.8849999999994</v>
+        <v>238.0450000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1769,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>370.655</v>
+        <v>207.1900000000002</v>
       </c>
     </row>
     <row r="45">
@@ -1780,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>389.155</v>
+        <v>221.3450000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1791,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>371.05</v>
+        <v>209.0700000000002</v>
       </c>
     </row>
     <row r="47">
@@ -1802,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>312.9200000000006</v>
+        <v>148.1150000000007</v>
       </c>
     </row>
     <row r="48">
@@ -1813,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>321.725</v>
+        <v>158.8850000000007</v>
       </c>
     </row>
     <row r="49">
@@ -1824,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>310.8350000000006</v>
+        <v>147.3700000000007</v>
       </c>
     </row>
     <row r="50">
@@ -1835,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>325.3850000000006</v>
+        <v>157.5750000000007</v>
       </c>
     </row>
     <row r="51">
@@ -1846,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>312.1200000000006</v>
+        <v>150.1400000000007</v>
       </c>
     </row>
     <row r="52">
@@ -1857,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>227.4350000000001</v>
+        <v>318.7450000000017</v>
       </c>
     </row>
     <row r="53">
@@ -1868,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>233.7599999999995</v>
+        <v>334.7600000000017</v>
       </c>
     </row>
     <row r="54">
@@ -1879,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>231.1200000000001</v>
+        <v>327.0100000000016</v>
       </c>
     </row>
     <row r="55">
@@ -1890,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>234.6550000000001</v>
+        <v>342.6250000000018</v>
       </c>
     </row>
     <row r="56">
@@ -1901,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>227.3900000000001</v>
+        <v>323.2400000000017</v>
       </c>
     </row>
     <row r="57">
@@ -1912,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>453.4749999999995</v>
+        <v>288.6699999999997</v>
       </c>
     </row>
     <row r="58">
@@ -1923,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>480.9399999999989</v>
+        <v>318.1</v>
       </c>
     </row>
     <row r="59">
@@ -1934,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>452.9749999999995</v>
+        <v>289.5099999999996</v>
       </c>
     </row>
     <row r="60">
@@ -1945,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>473.1099999999996</v>
+        <v>305.3</v>
       </c>
     </row>
     <row r="61">
@@ -1956,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>451.8649999999995</v>
+        <v>289.8849999999996</v>
       </c>
     </row>
     <row r="62">
@@ -1967,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>305.6550000000002</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="63">
@@ -1978,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>305.3450000000002</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="64">
@@ -1989,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>285.8300000000003</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="65">
@@ -2000,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>299.4050000000002</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="66">
@@ -2011,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>294.45</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="67">
@@ -2022,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>318.7450000000017</v>
       </c>
     </row>
     <row r="68">
@@ -2033,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>334.7600000000017</v>
       </c>
     </row>
     <row r="69">
@@ -2044,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>327.0100000000016</v>
       </c>
     </row>
     <row r="70">
@@ -2055,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>342.6250000000018</v>
       </c>
     </row>
     <row r="71">
@@ -2066,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>323.2400000000017</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>53.47499999999951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2124,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>80.93999999999892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2135,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>52.97499999999951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2146,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>73.1099999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2157,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>51.8649999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2314,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2325,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2336,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2347,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2358,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2369,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="8">
@@ -2380,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="9">
@@ -2391,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="10">
@@ -2402,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="11">
@@ -2413,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="12">
@@ -2534,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="23">
@@ -2545,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24">
@@ -2556,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4.755</v>
       </c>
     </row>
     <row r="25">
@@ -2567,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="26">
@@ -2578,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="27">
@@ -2644,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>10.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2655,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>8.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2666,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2677,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>14.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2688,7 +2549,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2867,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2892,72 +2753,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
